--- a/biology/Biochimie/Glutamate_déshydrogénase/Glutamate_déshydrogénase.xlsx
+++ b/biology/Biochimie/Glutamate_déshydrogénase/Glutamate_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glutamate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Glutamate_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glutamate déshydrogénase est une enzyme de la voie GDH permettant l'assimilation de l'azote en molécules organiques azotées chez les végétaux. Cette voie GDH permet un transfert du NH3 sur un composé alpha-cétonique, donnant par exemple du glutamate à partir de l'alpha-cétoglutarate, par l'intervention de la glutamate déshydrogénase (GDH).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glutamate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Glutamate_déshydrogénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Réaction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glutamate déshydrogénase catalyse la réaction suivante[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glutamate déshydrogénase catalyse la réaction suivante :
 L-glutamate + H2O + NAD+ = alpha-cétoglutarate + NH3 + NADH + H+
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glutamate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Glutamate_déshydrogénase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Occurrence naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glutamate déshydrogénase est ubiquitaire chez les mammifères[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glutamate déshydrogénase est ubiquitaire chez les mammifères.
 </t>
         </is>
       </c>
